--- a/courses/excel/onshore/non-coe/aibt/DIANA_SCHOOL_OF_COMMUNITY_SERVICES.xlsx
+++ b/courses/excel/onshore/non-coe/aibt/DIANA_SCHOOL_OF_COMMUNITY_SERVICES.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Brochure APP\documents\new version\onshore\non-coe\aibt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/aibt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_8B0793BC9FF73F7123D28FD49D780576879605D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E06CACF2-C872-4293-BAC3-D5AFD10C5DFD}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="-105" windowWidth="22140" windowHeight="13170"/>
+    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
   <si>
     <t>vetCode</t>
   </si>
@@ -47,21 +48,74 @@
     <t>location</t>
   </si>
   <si>
+    <t>NSW/QLD/TAS</t>
+  </si>
+  <si>
+    <t>CHC33015 / CHC43015 / CHC52015</t>
+  </si>
+  <si>
+    <t>090851M/090852K/093815B</t>
+  </si>
+  <si>
+    <t>Certificate III in Individual Support (Ageing) + Certificate IV in Ageing Support + Diploma of Community Services</t>
+  </si>
+  <si>
+    <t>placementDuration</t>
+  </si>
+  <si>
+    <t>placementFee</t>
+  </si>
+  <si>
+    <t>tuition</t>
+  </si>
+  <si>
+    <t>locationDetail</t>
+  </si>
+  <si>
+    <t>durationMin</t>
+  </si>
+  <si>
+    <t>durationMax</t>
+  </si>
+  <si>
+    <t>tuitionDetail</t>
+  </si>
+  <si>
+    <t>tuitionHalf</t>
+  </si>
+  <si>
+    <t>tuitionHalfDetail</t>
+  </si>
+  <si>
+    <t>placementDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionValidity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CHC33015</t>
   </si>
   <si>
     <t>090851M</t>
   </si>
   <si>
-    <t>Ageing Support</t>
-  </si>
-  <si>
-    <t>NSW/QLD/TAS</t>
+    <t>Certificate III in Individual Support (Ageing)</t>
+  </si>
+  <si>
+    <t>Certificate III in Individual Support (Disability)</t>
+  </si>
+  <si>
+    <t>Certificate III in Individual Support (Home and Community)</t>
   </si>
   <si>
     <t>Certificate III in Individual Support (Ageing, Disability)</t>
   </si>
   <si>
+    <t>Certificate III in Individual Support (Ageing, Home and Community)</t>
+  </si>
+  <si>
     <t>CHC43015</t>
   </si>
   <si>
@@ -77,77 +131,165 @@
     <t>093815B</t>
   </si>
   <si>
-    <t>Community Services</t>
-  </si>
-  <si>
     <t>Diploma of Community Services</t>
   </si>
   <si>
+    <t>**CHC30113</t>
+  </si>
+  <si>
+    <t>093818K</t>
+  </si>
+  <si>
+    <t>**CHC50113</t>
+  </si>
+  <si>
+    <t>093819J</t>
+  </si>
+  <si>
+    <t>HLT42015</t>
+  </si>
+  <si>
+    <t>093817M</t>
+  </si>
+  <si>
+    <t>Certificate IV in Massage Therapy</t>
+  </si>
+  <si>
+    <t>HLT52015</t>
+  </si>
+  <si>
+    <t>093816A</t>
+  </si>
+  <si>
+    <t>Diploma of Remedial Massage</t>
+  </si>
+  <si>
+    <t>CHC33015 / CHC43015</t>
+  </si>
+  <si>
+    <t>090851M/090852K</t>
+  </si>
+  <si>
+    <t>Certificate III in Individual Support (Ageing) + Certificate IV in Ageing Support</t>
+  </si>
+  <si>
+    <t>CHC33015 / CHC52015</t>
+  </si>
+  <si>
+    <t>090851M/093815B</t>
+  </si>
+  <si>
+    <t>Certificate III in Individual Support (Ageing, Disability) + Diploma of Community Services</t>
+  </si>
+  <si>
+    <t>Certificate III in Individual Support (Ageing) + Diploma of Community Services</t>
+  </si>
+  <si>
+    <t>Certificate III in Individual Support (Disability) + Diploma of Community Services</t>
+  </si>
+  <si>
+    <t>Certificate III in Individual Support (Ageing, Home and Community) + Diploma of Community Services</t>
+  </si>
+  <si>
+    <t>**CHC30113 / **CHC50113</t>
+  </si>
+  <si>
+    <t>093818K/093819J</t>
+  </si>
+  <si>
+    <t>HLT42015 / HLT52015</t>
+  </si>
+  <si>
+    <t>093817M/093816A</t>
+  </si>
+  <si>
+    <t>Certificate IV in Massage Therapy + Diploma of Remedial Massage</t>
+  </si>
+  <si>
+    <t>DIANA SCHOOL OF COMMUNITY SERVICES</t>
+  </si>
+  <si>
+    <t>NSW/QLD/TAS (Currently not accepting enrolments)</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>NSW/QLD</t>
+  </si>
+  <si>
+    <t>9,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>10,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>11,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>12,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>16,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>17,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>18,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>Promotion valid until  31th Dec 2021</t>
+  </si>
+  <si>
+    <t>Certificate III in Early Childhood Education and Care (**This course has been superseded)</t>
+  </si>
+  <si>
+    <t>Diploma of Early Childhood Education and Care (**This course has been superseded)</t>
+  </si>
+  <si>
+    <t>Certificate III in Early Childhood Education and Care + Diploma of Early Childhood Education and Care (**This course has been superseded)</t>
+  </si>
+  <si>
+    <t>42 wks Tuition + 10 wks Break</t>
+  </si>
+  <si>
+    <t>Placement will only commence after the 35th week</t>
+  </si>
+  <si>
     <t>46 wks Tuition + 6 wks Break</t>
   </si>
   <si>
-    <t>CHC30113</t>
-  </si>
-  <si>
-    <t>093818K</t>
-  </si>
-  <si>
-    <t>Early Childhood</t>
-  </si>
-  <si>
-    <t>Certificate III in Early Childhood Education and Care</t>
-  </si>
-  <si>
-    <t>placementDuration</t>
-  </si>
-  <si>
-    <t>placementFee</t>
-  </si>
-  <si>
-    <t>tuition</t>
-  </si>
-  <si>
-    <t>locationDetail</t>
-  </si>
-  <si>
-    <t>tuitionDetail</t>
-  </si>
-  <si>
-    <t>tuitionHalf</t>
-  </si>
-  <si>
-    <t>tuitionHalfDetail</t>
-  </si>
-  <si>
-    <t>32 wks Tuition + 3 wks Break + Placement
-(Placement will only commence after the 35th week)</t>
-  </si>
-  <si>
-    <t>6,000 tuition fee + 500 Placement fee +200 handling fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,750 tuition fee + 500 Placement fee + 200 handling fee + 2x25 instalment fee (500 Placement fee must be paid in 1st Instalment) </t>
-  </si>
-  <si>
-    <t>31 wks Tuition + 4 wks Break + Placement
-(Placement will only commence after the 35th week)</t>
-  </si>
-  <si>
-    <t>5,000 tuition fee + 500 Placement fee + 200 handling fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,600 tuition fee + 500 Placement fee + 200 handling fee + 2x25 instalment fee (500 Placement fee must be paid in 1st Instalment) </t>
+    <t>49 wks Tuition + 3 wks Break</t>
+  </si>
+  <si>
+    <t>40 wks Tuition + 12 wks Break</t>
+  </si>
+  <si>
+    <t>Placement will only commence after the 52th week</t>
+  </si>
+  <si>
+    <t>88 wks Tuition + 16 wks Break</t>
+  </si>
+  <si>
+    <t>92 wks Tuition + 12 wks Break</t>
+  </si>
+  <si>
+    <t>76 wks Tuition + 16 wks Break</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,13 +297,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -187,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -196,12 +338,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,32 +617,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,195 +662,794 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="60">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>120</v>
+      </c>
+      <c r="P2">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="60">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>120</v>
+      </c>
+      <c r="P3">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="60">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E4">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>120</v>
+      </c>
+      <c r="P4">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="60">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>120</v>
+      </c>
+      <c r="P5">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="60">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>120</v>
+      </c>
+      <c r="P6">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="60">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="O7">
+        <v>120</v>
+      </c>
+      <c r="P7">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>500</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>120</v>
+      </c>
+      <c r="P9">
+        <v>500</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>240</v>
+      </c>
+      <c r="P10">
+        <v>500</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="60">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11">
+        <v>80</v>
+      </c>
+      <c r="P11">
+        <v>500</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="60">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>500</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="60">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>104</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13">
+        <v>120</v>
+      </c>
+      <c r="P13">
+        <v>1000</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="45">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>104</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14">
+        <v>220</v>
+      </c>
+      <c r="P14">
+        <v>1000</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="45">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>104</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15">
+        <v>220</v>
+      </c>
+      <c r="P15">
+        <v>1000</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="45">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>104</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16">
+        <v>220</v>
+      </c>
+      <c r="P16">
+        <v>1000</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="60">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>104</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>220</v>
+      </c>
+      <c r="P17">
+        <v>1000</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="75">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>52</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2">
-        <v>120</v>
-      </c>
-      <c r="N2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>120</v>
-      </c>
-      <c r="N3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2">
-        <v>52</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3">
-        <v>6350</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>120</v>
-      </c>
-      <c r="N5">
-        <v>500</v>
+      <c r="E18">
+        <v>104</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>220</v>
+      </c>
+      <c r="P18">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="75">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>104</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>240</v>
+      </c>
+      <c r="P19">
+        <v>1000</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="60">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>92</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20">
+        <v>200</v>
+      </c>
+      <c r="P20">
+        <v>1000</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="J21" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/courses/excel/onshore/non-coe/aibt/DIANA_SCHOOL_OF_COMMUNITY_SERVICES.xlsx
+++ b/courses/excel/onshore/non-coe/aibt/DIANA_SCHOOL_OF_COMMUNITY_SERVICES.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/aibt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\courses\excel\onshore\non-coe\aibt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_8B0793BC9FF73F7123D28FD49D780576879605D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E06CACF2-C872-4293-BAC3-D5AFD10C5DFD}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18345" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
   <si>
     <t>vetCode</t>
   </si>
@@ -206,12 +205,6 @@
     <t>Certificate IV in Massage Therapy + Diploma of Remedial Massage</t>
   </si>
   <si>
-    <t>DIANA SCHOOL OF COMMUNITY SERVICES</t>
-  </si>
-  <si>
-    <t>NSW/QLD/TAS (Currently not accepting enrolments)</t>
-  </si>
-  <si>
     <t>TAS</t>
   </si>
   <si>
@@ -242,9 +235,6 @@
     <t>18,000 tuition fee + 200 handling fee</t>
   </si>
   <si>
-    <t>Promotion valid until  31th Dec 2021</t>
-  </si>
-  <si>
     <t>Certificate III in Early Childhood Education and Care (**This course has been superseded)</t>
   </si>
   <si>
@@ -279,17 +269,47 @@
   </si>
   <si>
     <t>76 wks Tuition + 16 wks Break</t>
+  </si>
+  <si>
+    <t>Ageing Support</t>
+  </si>
+  <si>
+    <t>Ageing Support</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Community Services</t>
+  </si>
+  <si>
+    <t>Early Childhood</t>
+  </si>
+  <si>
+    <t>Massage</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>Currently not accepting enrolments</t>
+  </si>
+  <si>
+    <t>NSW/QLD/TAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSW/QLD/TAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -297,13 +317,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -617,35 +637,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,10 +721,10 @@
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="60">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -712,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -721,13 +741,13 @@
         <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I2" s="3">
         <v>9000</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
         <v>7</v>
@@ -739,13 +759,11 @@
         <v>500</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="60">
+        <v>73</v>
+      </c>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -753,7 +771,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -762,13 +780,13 @@
         <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I3" s="3">
         <v>9000</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
         <v>7</v>
@@ -780,13 +798,11 @@
         <v>500</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="60">
+        <v>73</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -794,7 +810,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -803,13 +819,13 @@
         <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I4" s="3">
         <v>9000</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
@@ -821,13 +837,11 @@
         <v>500</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="60">
+        <v>73</v>
+      </c>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -835,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -844,13 +858,13 @@
         <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I5" s="3">
         <v>9000</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
         <v>7</v>
@@ -862,13 +876,11 @@
         <v>500</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="60">
+        <v>73</v>
+      </c>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -876,7 +888,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -885,13 +897,13 @@
         <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3">
         <v>9000</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
         <v>7</v>
@@ -903,13 +915,11 @@
         <v>500</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="60">
+        <v>73</v>
+      </c>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -917,7 +927,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
@@ -926,13 +936,13 @@
         <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I7" s="3">
         <v>10000</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
@@ -944,13 +954,11 @@
         <v>500</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="45">
+        <v>73</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -958,7 +966,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -967,13 +975,13 @@
         <v>52</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I8" s="3">
         <v>11000</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M8" t="s">
         <v>7</v>
@@ -984,11 +992,9 @@
       <c r="P8">
         <v>500</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="45">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -996,22 +1002,22 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I9" s="3">
         <v>10000</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
         <v>7</v>
@@ -1022,11 +1028,9 @@
       <c r="P9">
         <v>500</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="45">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1034,22 +1038,22 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3">
         <v>12000</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
         <v>7</v>
@@ -1060,11 +1064,9 @@
       <c r="P10">
         <v>500</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="60">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1081,16 +1083,19 @@
         <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I11" s="3">
         <v>9000</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="N11" t="s">
+        <v>87</v>
       </c>
       <c r="O11">
         <v>80</v>
@@ -1098,11 +1103,9 @@
       <c r="P11">
         <v>500</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="60">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
@@ -1119,16 +1122,19 @@
         <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I12" s="3">
         <v>10000</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="N12" t="s">
+        <v>87</v>
       </c>
       <c r="O12">
         <v>200</v>
@@ -1136,11 +1142,9 @@
       <c r="P12">
         <v>500</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="60">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>47</v>
@@ -1157,16 +1161,16 @@
         <v>104</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I13" s="3">
         <v>16000</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O13">
         <v>120</v>
@@ -1175,13 +1179,11 @@
         <v>1000</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="45">
+        <v>77</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1189,7 +1191,7 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>50</v>
@@ -1198,16 +1200,16 @@
         <v>104</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I14" s="3">
         <v>17000</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O14">
         <v>220</v>
@@ -1215,11 +1217,9 @@
       <c r="P14">
         <v>1000</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="45">
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>51</v>
@@ -1236,16 +1236,16 @@
         <v>104</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="3">
         <v>17000</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O15">
         <v>220</v>
@@ -1253,11 +1253,9 @@
       <c r="P15">
         <v>1000</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="45">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1265,7 +1263,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>52</v>
@@ -1274,16 +1272,16 @@
         <v>104</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I16" s="3">
         <v>17000</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O16">
         <v>220</v>
@@ -1291,11 +1289,9 @@
       <c r="P16">
         <v>1000</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="60">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -1303,7 +1299,7 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>53</v>
@@ -1312,13 +1308,13 @@
         <v>104</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="3">
         <v>17000</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M17" t="s">
         <v>7</v>
@@ -1329,11 +1325,9 @@
       <c r="P17">
         <v>1000</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="75">
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
@@ -1350,13 +1344,13 @@
         <v>104</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I18" s="3">
         <v>17000</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M18" t="s">
         <v>7</v>
@@ -1367,11 +1361,9 @@
       <c r="P18">
         <v>1000</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="75">
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1379,22 +1371,22 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>104</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I19" s="3">
         <v>18000</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M19" t="s">
         <v>7</v>
@@ -1405,11 +1397,9 @@
       <c r="P19">
         <v>1000</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="60">
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1417,7 +1407,7 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>58</v>
@@ -1426,16 +1416,19 @@
         <v>92</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I20" s="3">
         <v>16000</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="N20" t="s">
+        <v>87</v>
       </c>
       <c r="O20">
         <v>200</v>
@@ -1443,13 +1436,11 @@
       <c r="P20">
         <v>1000</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
